--- a/GeekBrains/Lesson 6. Branches/Commands.xlsx
+++ b/GeekBrains/Lesson 6. Branches/Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\GeekBrains\Lesson 6. Branches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F02D475-8FC5-431C-ACD1-816F07F95CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA02F42-C901-465D-B77F-62451167AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2505" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>git branch</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Удаление ветки</t>
+  </si>
+  <si>
+    <t>git merge (test)</t>
+  </si>
+  <si>
+    <t>Слияние указанной ветки в текущую</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +443,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
